--- a/src/main/webapp/WEB-INF/excel-templates/update_qh_tinh_result.xlsx
+++ b/src/main/webapp/WEB-INF/excel-templates/update_qh_tinh_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Media_Soft\SVN_CTY\trunk\code\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94FB06D1-845F-47DA-A964-398D82BF213D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E36DB05A-F1E5-4018-9C79-65C04B9D7700}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="817">
   <si>
     <t>Thông tin chung</t>
   </si>
@@ -209,61 +209,7 @@
     <t>Ngày thông báo hoàn thành CSHT</t>
   </si>
   <si>
-    <t>mã thống nhất QH của trạm</t>
-  </si>
-  <si>
-    <t>trạm QH theo phê duyệt</t>
-  </si>
-  <si>
-    <t>thông tin quận/huyện</t>
-  </si>
-  <si>
-    <t>thông tin Xã/Phường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">địa chỉ xây dựng </t>
-  </si>
-  <si>
-    <t>tên trạm CSHT</t>
-  </si>
-  <si>
-    <t>dd/mm/yyyy</t>
-  </si>
-  <si>
     <t>Độ cao cột (m)</t>
-  </si>
-  <si>
-    <t>số luồng E1</t>
-  </si>
-  <si>
-    <t>ghi bình độ vị trí XD</t>
-  </si>
-  <si>
-    <t>số luống STM1</t>
-  </si>
-  <si>
-    <t>ghi tên tỉnh</t>
-  </si>
-  <si>
-    <t>Số văn bản thông báo</t>
-  </si>
-  <si>
-    <t>ghi ý kiến nếu có</t>
-  </si>
-  <si>
-    <t>ghi hãng SX tủ nguồn</t>
-  </si>
-  <si>
-    <t>VD ghi: 180</t>
-  </si>
-  <si>
-    <t>ghi dung lượng của tổ acquy. VD: 150 hoặc 300</t>
-  </si>
-  <si>
-    <t>ghi số tổ acquy. VD: 3</t>
-  </si>
-  <si>
-    <t>2V/12V</t>
   </si>
   <si>
     <t>VTT</t>
@@ -2743,6 +2689,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2757,17 +2714,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3109,7 +3055,7 @@
   <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,268 +3071,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AV1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AW1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AY1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BA1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BB1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BC1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BD1" s="23"/>
+      <c r="BD1" s="17"/>
     </row>
     <row r="2" spans="1:56" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AE2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AS2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AT2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AV2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AW2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AX2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AY2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BC2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="8" t="s">
         <v>30</v>
       </c>
@@ -3430,7 +3376,7 @@
         <v>43</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>44</v>
@@ -3462,7 +3408,7 @@
       <c r="AI3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" s="18"/>
+      <c r="AJ3" s="23"/>
       <c r="AK3" s="8" t="s">
         <v>54</v>
       </c>
@@ -3487,166 +3433,94 @@
       <c r="AR3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="15"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="20"/>
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
     <mergeCell ref="D1:AS1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="AT1:BD1"/>
@@ -3663,22 +3537,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3763,3695 +3621,3695 @@
   <sheetData>
     <row r="1" spans="2:11" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K9" s="12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K10" s="12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K11" s="12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K12" s="12" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K13" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K14" s="12" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K15" s="12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K16" s="12" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" s="12" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" s="12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K20" s="12" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K21" s="12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K22" s="12" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K23" s="12" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K24" s="12" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K25" s="12" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K26" s="12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K27" s="12" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" s="12" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K29" s="12" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K30" s="12" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K31" s="12" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K32" s="12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="12" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="12" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="12" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="12" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="12" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="12" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K46" s="12" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K47" s="12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K48" s="12" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K49" s="12" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K50" s="12" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="12" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K52" s="12" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K53" s="12" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K54" s="12" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K55" s="12" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K56" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K57" s="12" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K58" s="12" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K59" s="12" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K60" s="12" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K61" s="12" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K62" s="12" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K63" s="12" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K64" s="12" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" s="12" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K66" s="12" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K67" s="12" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K68" s="12" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K69" s="12" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K70" s="12" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K71" s="12" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K72" s="12" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K73" s="12" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K74" s="12" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K75" s="12" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K76" s="12" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K77" s="12" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K78" s="12" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K79" s="12" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K80" s="12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K81" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K82" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K83" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K84" s="12" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K85" s="12" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K86" s="12" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K87" s="12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K88" s="12" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K89" s="12" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K90" s="12" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K91" s="12" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K92" s="12" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K93" s="12" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K94" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K95" s="12" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K96" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K97" s="12" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K98" s="12" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K99" s="12" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K100" s="12" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K101" s="12" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K102" s="12" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K103" s="12" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K104" s="12" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K105" s="12" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K106" s="12" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K107" s="12" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K108" s="12" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K109" s="12" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K110" s="12" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K111" s="12" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K112" s="12" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K113" s="12" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K114" s="12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K115" s="12" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K116" s="12" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K117" s="12" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K118" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K119" s="12" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K120" s="12" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K121" s="12" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K122" s="12" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K123" s="12" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K124" s="12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K125" s="12" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K126" s="12" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K127" s="12" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K128" s="12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K129" s="12" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K130" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K131" s="12" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K132" s="12" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K133" s="12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K134" s="12" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K135" s="12" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K136" s="12" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K137" s="12" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K138" s="12" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K139" s="12" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K140" s="12" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K141" s="12" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K142" s="12" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K143" s="12" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K144" s="12" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K145" s="12" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K146" s="12" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="147" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K147" s="12" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K148" s="12" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K149" s="12" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K150" s="12" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K151" s="12" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K152" s="12" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K153" s="12" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K154" s="12" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K155" s="12" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K156" s="12" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K157" s="12" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="158" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K158" s="12" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K159" s="12" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K160" s="12" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="12" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="12" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="12" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="12" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="12" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="12" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="12" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="12" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="12" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="12" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="12" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="12" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="12" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="12" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="12" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="12" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="12" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="12" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="12" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="12" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="12" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="12" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="12" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="12" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="12" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="12" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="12" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="12" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="12" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="12" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="12" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="12" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="12" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="12" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="12" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="12" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="12" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="12" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="12" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="12" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="12" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="12" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="12" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="12" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="12" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="12" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="12" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="12" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="12" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="12" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="12" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="12" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="12" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="12" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="12" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="12" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="12" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="12" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="12" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="12" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="12" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="12" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="12" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="12" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="12" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="12" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="12" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="12" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="12" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="12" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="12" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="12" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="12" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="12" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="12" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="12" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="12" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="12" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="12" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="12" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="12" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="12" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="12" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="12" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="12" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="12" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="12" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="12" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="12" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="12" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="12" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="12" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="12" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="12" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="12" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="12" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="12" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="12" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="12" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="12" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="12" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="12" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="12" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="12" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="12" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="12" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="12" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="12" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="12" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="12" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="12" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="12" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="12" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="12" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="12" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="12" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="12" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="12" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="12" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="12" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="12" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="12" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="12" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="12" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="12" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="12" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="12" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="12" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="12" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="12" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="12" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="12" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="12" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="12" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="12" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="12" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="12" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="12" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="12" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="12" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="12" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="12" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="12" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="12" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="12" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="12" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="12" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="12" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="12" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="12" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="12" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="12" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="12" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="12" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="12" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="12" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="12" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="12" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="12" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="12" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="12" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="12" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="12" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="12" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="12" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="12" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="12" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="12" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="12" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="12" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="12" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="12" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="12" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="12" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="12" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="12" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="12" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="12" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="12" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="12" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="12" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="12" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="12" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="12" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="12" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="12" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="12" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="12" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="12" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="12" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="12" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="12" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="12" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="12" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="12" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="12" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="12" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="12" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="12" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="12" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="12" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="12" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="12" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="12" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="369" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K369" s="12" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="370" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K370" s="12" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="371" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K371" s="12" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="372" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K372" s="12" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="373" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K373" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="374" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K374" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="375" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K375" s="12" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K376" s="12" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="377" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K377" s="12" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="378" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K378" s="12" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="379" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K379" s="12" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="380" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K380" s="12" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="381" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K381" s="12" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="382" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K382" s="12" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="383" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K383" s="12" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="384" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K384" s="12" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K385" s="12" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="386" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K386" s="12" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="387" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K387" s="12" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="388" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K388" s="12" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K389" s="12" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="390" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K390" s="12" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="391" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K391" s="12" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="392" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K392" s="12" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="393" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K393" s="12" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="394" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K394" s="12" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K395" s="12" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K396" s="12" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="397" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K397" s="12" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="398" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K398" s="12" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="399" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K399" s="12" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="400" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K400" s="12" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K401" s="12" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="402" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K402" s="12" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="403" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K403" s="12" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="404" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K404" s="12" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="405" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K405" s="12" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="406" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K406" s="12" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="407" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K407" s="12" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="408" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K408" s="12" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="409" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K409" s="12" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="410" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K410" s="12" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="411" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K411" s="12" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="412" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K412" s="12" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="413" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K413" s="12" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="414" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K414" s="12" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="415" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K415" s="12" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="416" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K416" s="12" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="417" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K417" s="12" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="418" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K418" s="12" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="419" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K419" s="12" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K420" s="12" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="421" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K421" s="12" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="422" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K422" s="12" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="423" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K423" s="12" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K424" s="12" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="425" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K425" s="12" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="426" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K426" s="12" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="427" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K427" s="12" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="428" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K428" s="12" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="429" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K429" s="12" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="430" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K430" s="12" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="431" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K431" s="12" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="432" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K432" s="12" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="433" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K433" s="12" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="434" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K434" s="12" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="435" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K435" s="12" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="436" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K436" s="12" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="437" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K437" s="12" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="438" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K438" s="12" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="439" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K439" s="12" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="440" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K440" s="12" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="441" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K441" s="12" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="442" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K442" s="12" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="443" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K443" s="12" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="444" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K444" s="12" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="445" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K445" s="12" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="446" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K446" s="12" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="447" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K447" s="12" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="448" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K448" s="12" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="449" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K449" s="12" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="450" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K450" s="12" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="451" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K451" s="12" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K452" s="12" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="453" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K453" s="12" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="454" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K454" s="12" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="455" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K455" s="12" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="456" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K456" s="12" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="457" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K457" s="12" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="458" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K458" s="12" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="459" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K459" s="12" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="460" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K460" s="12" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="461" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K461" s="12" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="462" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K462" s="12" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="463" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K463" s="12" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="464" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K464" s="12" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="465" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K465" s="12" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K466" s="12" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="467" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K467" s="12" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="468" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K468" s="12" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="469" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K469" s="12" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K470" s="12" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="471" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K471" s="12" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K472" s="12" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="473" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K473" s="12" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="474" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K474" s="12" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="475" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K475" s="12" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="476" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K476" s="12" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="477" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K477" s="12" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K478" s="12" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="479" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K479" s="12" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K480" s="12" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="481" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K481" s="12" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="482" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K482" s="12" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="483" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K483" s="12" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="484" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K484" s="12" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="485" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K485" s="12" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="486" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K486" s="12" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
     </row>
     <row r="487" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K487" s="12" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="488" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K488" s="12" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="489" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K489" s="12" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K490" s="12" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="491" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K491" s="12" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="492" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K492" s="12" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="493" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K493" s="12" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="494" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K494" s="12" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="495" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K495" s="12" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="496" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K496" s="12" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="497" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K497" s="12" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="498" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K498" s="12" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="499" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K499" s="12" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="500" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K500" s="12" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="501" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K501" s="12" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="502" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K502" s="12" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="503" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K503" s="12" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="504" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K504" s="12" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="505" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K505" s="12" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="506" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K506" s="12" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="507" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K507" s="12" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="508" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K508" s="12" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="509" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K509" s="12" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="510" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K510" s="12" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="511" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K511" s="12" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="512" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K512" s="12" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="513" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K513" s="12" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="514" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K514" s="12" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="515" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K515" s="12" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="516" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K516" s="12" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="517" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K517" s="12" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="518" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K518" s="12" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
     </row>
     <row r="519" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K519" s="12" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="520" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K520" s="12" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="521" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K521" s="12" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="522" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K522" s="12" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
     </row>
     <row r="523" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K523" s="12" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="524" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K524" s="12" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="525" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K525" s="12" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="526" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K526" s="12" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="527" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K527" s="12" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="528" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K528" s="12" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="529" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K529" s="12" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="530" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K530" s="12" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="531" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K531" s="12" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="532" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K532" s="12" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="533" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K533" s="12" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="534" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K534" s="12" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
     </row>
     <row r="535" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K535" s="12" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="536" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K536" s="12" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="537" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K537" s="12" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="538" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K538" s="12" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
     </row>
     <row r="539" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K539" s="12" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="540" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K540" s="12" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="541" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K541" s="12" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="542" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K542" s="12" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
     </row>
     <row r="543" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K543" s="12" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="544" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K544" s="12" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="545" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K545" s="12" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
     <row r="546" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K546" s="12" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="547" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K547" s="12" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="548" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K548" s="12" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="549" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K549" s="12" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="550" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K550" s="12" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="551" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K551" s="12" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="552" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K552" s="12" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="553" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K553" s="12" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="554" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K554" s="12" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="555" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K555" s="12" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="556" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K556" s="12" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="557" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K557" s="12" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="558" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K558" s="12" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
     </row>
     <row r="559" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K559" s="12" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="560" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K560" s="12" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="561" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K561" s="12" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
     </row>
     <row r="562" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K562" s="12" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="563" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K563" s="12" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="564" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K564" s="12" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
     </row>
     <row r="565" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K565" s="12" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
     </row>
     <row r="566" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K566" s="12" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="567" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K567" s="12" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
     </row>
     <row r="568" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K568" s="12" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
     </row>
     <row r="569" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K569" s="12" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="570" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K570" s="12" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
     </row>
     <row r="571" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K571" s="12" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
     </row>
     <row r="572" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K572" s="12" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="573" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K573" s="12" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
     </row>
     <row r="574" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K574" s="12" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
     </row>
     <row r="575" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K575" s="12" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
     </row>
     <row r="576" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K576" s="12" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
     </row>
     <row r="577" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K577" s="12" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
     </row>
     <row r="578" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K578" s="12" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
     </row>
     <row r="579" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K579" s="12" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
     </row>
     <row r="580" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K580" s="12" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="581" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K581" s="12" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
     </row>
     <row r="582" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K582" s="12" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="583" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K583" s="12" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
     </row>
     <row r="584" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K584" s="12" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
     </row>
     <row r="585" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K585" s="12" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
     </row>
     <row r="586" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K586" s="12" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="587" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K587" s="12" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
     <row r="588" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K588" s="12" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="589" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K589" s="12" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
     </row>
     <row r="590" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K590" s="12" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="591" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K591" s="12" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="592" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K592" s="12" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="593" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K593" s="12" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="594" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K594" s="12" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
     </row>
     <row r="595" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K595" s="12" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
     </row>
     <row r="596" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K596" s="12" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="597" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K597" s="12" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="598" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K598" s="12" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
     </row>
     <row r="599" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K599" s="12" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="600" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K600" s="12" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="601" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K601" s="12" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="602" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K602" s="12" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="603" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K603" s="12" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="604" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K604" s="12" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="605" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K605" s="12" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
     </row>
     <row r="606" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K606" s="12" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="607" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K607" s="12" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
     </row>
     <row r="608" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K608" s="12" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
     </row>
     <row r="609" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K609" s="12" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
     </row>
     <row r="610" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K610" s="12" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="611" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K611" s="12" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
     </row>
     <row r="612" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K612" s="12" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
     </row>
     <row r="613" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K613" s="12" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
     </row>
     <row r="614" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K614" s="12" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="615" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K615" s="12" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
     </row>
     <row r="616" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K616" s="12" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="617" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K617" s="12" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="618" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K618" s="12" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
     </row>
     <row r="619" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K619" s="12" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
     </row>
     <row r="620" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K620" s="12" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="621" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K621" s="12" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
     </row>
     <row r="622" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K622" s="12" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="623" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K623" s="12" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
     </row>
     <row r="624" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K624" s="12" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
     </row>
     <row r="625" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K625" s="12" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
     </row>
     <row r="626" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K626" s="12" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
     </row>
     <row r="627" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K627" s="12" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="628" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K628" s="12" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
     </row>
     <row r="629" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K629" s="12" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
     </row>
     <row r="630" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K630" s="12" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
     </row>
     <row r="631" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K631" s="12" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="632" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K632" s="12" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
     </row>
     <row r="633" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K633" s="12" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
     </row>
     <row r="634" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K634" s="12" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
     </row>
     <row r="635" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K635" s="12" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="636" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K636" s="12" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
     </row>
     <row r="637" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K637" s="12" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="638" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K638" s="12" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="639" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K639" s="12" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
     </row>
     <row r="640" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K640" s="12" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="641" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K641" s="12" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
     </row>
     <row r="642" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K642" s="12" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
     </row>
     <row r="643" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K643" s="12" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="644" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K644" s="12" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
     </row>
     <row r="645" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K645" s="12" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
     </row>
     <row r="646" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K646" s="12" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="647" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K647" s="12" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
     </row>
     <row r="648" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K648" s="12" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
     </row>
     <row r="649" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K649" s="12" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
     </row>
     <row r="650" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K650" s="12" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="651" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K651" s="12" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
     </row>
     <row r="652" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K652" s="12" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
     </row>
     <row r="653" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K653" s="12" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
     </row>
     <row r="654" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K654" s="12" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
     </row>
     <row r="655" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K655" s="12" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
     </row>
     <row r="656" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K656" s="12" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
     </row>
     <row r="657" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K657" s="12" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
     </row>
     <row r="658" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K658" s="12" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
     </row>
     <row r="659" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K659" s="12" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
     </row>
     <row r="660" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K660" s="12" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
     </row>
     <row r="661" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K661" s="12" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="662" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K662" s="12" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="663" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K663" s="12" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
     </row>
     <row r="664" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K664" s="12" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="665" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K665" s="12" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="666" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K666" s="12" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="667" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K667" s="12" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="668" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K668" s="12" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
     </row>
     <row r="669" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K669" s="12" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
     </row>
     <row r="670" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K670" s="12" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="671" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K671" s="12" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
     </row>
     <row r="672" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K672" s="12" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="673" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K673" s="12" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
     </row>
     <row r="674" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K674" s="12" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="675" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K675" s="12" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
     </row>
     <row r="676" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K676" s="12" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
     </row>
     <row r="677" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K677" s="12" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="678" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K678" s="12" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="679" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K679" s="12" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="680" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K680" s="12" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="681" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K681" s="12" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="682" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K682" s="12" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="683" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K683" s="12" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="684" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K684" s="12" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
     </row>
     <row r="685" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K685" s="12" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="686" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K686" s="12" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="687" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K687" s="12" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
     </row>
     <row r="688" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K688" s="12" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="689" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K689" s="12" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="690" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K690" s="12" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
     <row r="691" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K691" s="12" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="692" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K692" s="12" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="693" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K693" s="12" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="694" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K694" s="12" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="695" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K695" s="12" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
     </row>
     <row r="696" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K696" s="12" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
     </row>
     <row r="697" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K697" s="12" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="698" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K698" s="12" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="699" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K699" s="12" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
     </row>
     <row r="700" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K700" s="12" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="701" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K701" s="12" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="702" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K702" s="12" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="703" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K703" s="12" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
     </row>
     <row r="704" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K704" s="12" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
     </row>
     <row r="705" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K705" s="12" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
     </row>
     <row r="706" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K706" s="12" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
     </row>
     <row r="707" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K707" s="12" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="708" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K708" s="12" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="709" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K709" s="12" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="710" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K710" s="12" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
     </row>
     <row r="711" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K711" s="12" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="712" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K712" s="12" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="713" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K713" s="12" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="714" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K714" s="12" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
